--- a/00_Raw_Assets/dog_breed_characteristics.xlsx
+++ b/00_Raw_Assets/dog_breed_characteristics.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/13_COM301/91902_Databases/Possible_Data_Sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/pereiraj72020_masseyhigh_school_nz/Documents/00_2021 files/Databases/91902_Dog_Breed_Characteristics/00_Raw_Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D517758-270C-416F-B23E-DD30982BFF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{1D517758-270C-416F-B23E-DD30982BFF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D124B53-0277-4164-A201-6D5F71635393}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="dog_breed_characteristics" sheetId="1" r:id="rId2"/>
     <sheet name="Test Data" sheetId="3" r:id="rId3"/>
+    <sheet name="BreedName" sheetId="4" r:id="rId4"/>
+    <sheet name="BreedName.csv" sheetId="7" r:id="rId5"/>
+    <sheet name="Group" sheetId="6" r:id="rId6"/>
+    <sheet name="Temperaments" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="510">
   <si>
     <t>BreedName</t>
   </si>
@@ -1513,12 +1528,51 @@
   </si>
   <si>
     <t>Temperament descriptors have been limited to 6 columns</t>
+  </si>
+  <si>
+    <t>BreedName_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temprament </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Group_ID</t>
+  </si>
+  <si>
+    <t>Temprament 1_ID</t>
+  </si>
+  <si>
+    <t>Temprament 2_ID</t>
+  </si>
+  <si>
+    <t>Temprament 3_ID</t>
+  </si>
+  <si>
+    <t>Temprament 4_ID</t>
+  </si>
+  <si>
+    <t>Temprament 5_ID</t>
+  </si>
+  <si>
+    <t>Temprament 6_ID</t>
+  </si>
+  <si>
+    <t>Group1_ID</t>
+  </si>
+  <si>
+    <t>Group2_ID</t>
+  </si>
+  <si>
+    <t>Temprament_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2353,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11264,16 +11318,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11281,984 +11335,4821 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>700</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>330</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>342</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>333</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>329</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>334</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>78</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>336</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>337</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>321</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>342</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>323</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>900</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>336</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>376</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>334</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1350</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>394</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>395</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>338</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>396</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>900</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>330</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>408</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>348</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>409</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>379</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1350</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>44</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>336</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>377</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>332</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>343</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>334</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>336</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>337</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>334</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>338</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>495</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
-      <c r="E9">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>500</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>37</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>434</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>435</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>343</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>342</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>600</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>43</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>420</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>329</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>334</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>338</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>323</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>30</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>800</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>44</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>319</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>362</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>333</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>334</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>338</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1050</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>336</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>408</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>343</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>334</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>323</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>900</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>60</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>336</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>450</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>442</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>408</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>334</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>400</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>330</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>327</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>339</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>376</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>400</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>319</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>438</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>333</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>328</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1750</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>466</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>392</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>357</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>352</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>324</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>215</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>49</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>41</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>550</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>46</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>468</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>445</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>224</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>450</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>43</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>319</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>362</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>433</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>382</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>385</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>234</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
+      <c r="C20">
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
         <v>14</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1100</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>27</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>436</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>342</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>376</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>334</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>338</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>245</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>33</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>900</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>441</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>411</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>341</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>334</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>346</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>256</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
+      <c r="C22">
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
         <v>39</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1350</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>63</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>380</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>467</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>334</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>344</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>323</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>267</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
+      <c r="C23">
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23">
         <v>49</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>900</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>319</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>485</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>332</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>347</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>277</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1600</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>62</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>336</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>433</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>342</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>343</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>396</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>289</v>
       </c>
-      <c r="C25" t="s">
-        <v>22</v>
+      <c r="C25">
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
         <v>9</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>53</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>330</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>333</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>334</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>366</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>329</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
       <c r="B26" t="s">
         <v>304</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>800</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>330</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>332</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>342</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>329</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>334</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBD5C9-0EE3-452F-A7CB-CF4FCD6EED26}">
+  <dimension ref="A1:W26"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="W1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(D2,Group!$A$2:$B$14,2)</f>
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(F2,Group!$A$2:$B$14,2)</f>
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>700</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2">
+        <f>VLOOKUP(L2,Temperaments!$A$2:$B$67,2)</f>
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(N2,Temperaments!$A$2:$B$67,2)</f>
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q2">
+        <f>VLOOKUP(P2,Temperaments!$A$2:$B$67,2)</f>
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>329</v>
+      </c>
+      <c r="S2">
+        <f>VLOOKUP(R2,Temperaments!$A$2:$B$67,2)</f>
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>334</v>
+      </c>
+      <c r="U2">
+        <f>VLOOKUP(T2,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
+        <v>346</v>
+      </c>
+      <c r="W2">
+        <f>VLOOKUP(V2,Temperaments!$A$2:$B$67,2)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(D3,Group!$A$2:$B$14,2)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(F3,Group!$A$2:$B$14,2)</f>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>1100</v>
+      </c>
+      <c r="J3">
+        <v>78</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3">
+        <f>VLOOKUP(L3,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>337</v>
+      </c>
+      <c r="O3">
+        <f>VLOOKUP(N3,Temperaments!$A$2:$B$67,2)</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q3">
+        <f>VLOOKUP(P3,Temperaments!$A$2:$B$67,2)</f>
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>342</v>
+      </c>
+      <c r="S3">
+        <f>VLOOKUP(R3,Temperaments!$A$2:$B$67,2)</f>
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>323</v>
+      </c>
+      <c r="U3">
+        <f>VLOOKUP(T3,Temperaments!$A$2:$B$67,2)</f>
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>334</v>
+      </c>
+      <c r="W3">
+        <f>VLOOKUP(V3,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(D4,Group!$A$2:$B$14,2)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(F4,Group!$A$2:$B$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>900</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>336</v>
+      </c>
+      <c r="M4">
+        <f>VLOOKUP(L4,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O4">
+        <f>VLOOKUP(N4,Temperaments!$A$2:$B$67,2)</f>
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4">
+        <f>VLOOKUP(P4,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>338</v>
+      </c>
+      <c r="S4">
+        <f>VLOOKUP(R4,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+      <c r="U4" t="e">
+        <f>VLOOKUP(T4,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="e">
+        <f>VLOOKUP(V4,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(D5,Group!$A$2:$B$14,2)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(F5,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1350</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>394</v>
+      </c>
+      <c r="M5">
+        <f>VLOOKUP(L5,Temperaments!$A$2:$B$67,2)</f>
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>395</v>
+      </c>
+      <c r="O5">
+        <f>VLOOKUP(N5,Temperaments!$A$2:$B$67,2)</f>
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5">
+        <f>VLOOKUP(P5,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>396</v>
+      </c>
+      <c r="S5">
+        <f>VLOOKUP(R5,Temperaments!$A$2:$B$67,2)</f>
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>397</v>
+      </c>
+      <c r="U5">
+        <f>VLOOKUP(T5,Temperaments!$A$2:$B$67,2)</f>
+        <v>45</v>
+      </c>
+      <c r="W5" t="e">
+        <f>VLOOKUP(V5,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(D6,Group!$A$2:$B$14,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(F6,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>900</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>330</v>
+      </c>
+      <c r="M6">
+        <f>VLOOKUP(L6,Temperaments!$A$2:$B$67,2)</f>
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>408</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP(N6,Temperaments!$A$2:$B$67,2)</f>
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q6">
+        <f>VLOOKUP(P6,Temperaments!$A$2:$B$67,2)</f>
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>409</v>
+      </c>
+      <c r="S6">
+        <f>VLOOKUP(R6,Temperaments!$A$2:$B$67,2)</f>
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>379</v>
+      </c>
+      <c r="U6">
+        <f>VLOOKUP(T6,Temperaments!$A$2:$B$67,2)</f>
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>374</v>
+      </c>
+      <c r="W6">
+        <f>VLOOKUP(V6,Temperaments!$A$2:$B$67,2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(D7,Group!$A$2:$B$14,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(F7,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>1350</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M7">
+        <f>VLOOKUP(L7,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>377</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(N7,Temperaments!$A$2:$B$67,2)</f>
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q7">
+        <f>VLOOKUP(P7,Temperaments!$A$2:$B$67,2)</f>
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
+        <v>343</v>
+      </c>
+      <c r="S7">
+        <f>VLOOKUP(R7,Temperaments!$A$2:$B$67,2)</f>
+        <v>25</v>
+      </c>
+      <c r="T7" t="s">
+        <v>334</v>
+      </c>
+      <c r="U7">
+        <f>VLOOKUP(T7,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>345</v>
+      </c>
+      <c r="W7">
+        <f>VLOOKUP(V7,Temperaments!$A$2:$B$67,2)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(D8,Group!$A$2:$B$14,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(F8,Group!$A$2:$B$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8">
+        <f>VLOOKUP(L8,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N8" t="s">
+        <v>337</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP(N8,Temperaments!$A$2:$B$67,2)</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q8">
+        <f>VLOOKUP(P8,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
+        <v>338</v>
+      </c>
+      <c r="S8">
+        <f>VLOOKUP(R8,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>495</v>
+      </c>
+      <c r="U8">
+        <f>VLOOKUP(T8,Temperaments!$A$2:$B$67,2)</f>
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>323</v>
+      </c>
+      <c r="W8">
+        <f>VLOOKUP(V8,Temperaments!$A$2:$B$67,2)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="e">
+        <f>VLOOKUP(D9,Group!$A$2:$B$14,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <f>VLOOKUP(F9,Group!$A$2:$B$14,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <f>VLOOKUP(L9,Temperaments!$A$2:$B$67,2)</f>
+        <v>66</v>
+      </c>
+      <c r="O9" t="e">
+        <f>VLOOKUP(N9,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" t="e">
+        <f>VLOOKUP(P9,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S9" t="e">
+        <f>VLOOKUP(R9,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U9" t="e">
+        <f>VLOOKUP(T9,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W9" t="e">
+        <f>VLOOKUP(V9,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(D10,Group!$A$2:$B$14,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(F10,Group!$A$2:$B$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="J10">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>434</v>
+      </c>
+      <c r="M10">
+        <f>VLOOKUP(L10,Temperaments!$A$2:$B$67,2)</f>
+        <v>65</v>
+      </c>
+      <c r="N10" t="s">
+        <v>435</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP(N10,Temperaments!$A$2:$B$67,2)</f>
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q10">
+        <f>VLOOKUP(P10,Temperaments!$A$2:$B$67,2)</f>
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>342</v>
+      </c>
+      <c r="S10">
+        <f>VLOOKUP(R10,Temperaments!$A$2:$B$67,2)</f>
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>334</v>
+      </c>
+      <c r="U10">
+        <f>VLOOKUP(T10,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="W10" t="e">
+        <f>VLOOKUP(V10,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(D11,Group!$A$2:$B$14,2)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(F11,Group!$A$2:$B$14,2)</f>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>600</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>420</v>
+      </c>
+      <c r="M11">
+        <f>VLOOKUP(L11,Temperaments!$A$2:$B$67,2)</f>
+        <v>61</v>
+      </c>
+      <c r="N11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O11">
+        <f>VLOOKUP(N11,Temperaments!$A$2:$B$67,2)</f>
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11">
+        <f>VLOOKUP(P11,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>338</v>
+      </c>
+      <c r="S11">
+        <f>VLOOKUP(R11,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>323</v>
+      </c>
+      <c r="U11">
+        <f>VLOOKUP(T11,Temperaments!$A$2:$B$67,2)</f>
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>427</v>
+      </c>
+      <c r="W11">
+        <f>VLOOKUP(V11,Temperaments!$A$2:$B$67,2)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(D12,Group!$A$2:$B$14,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(F12,Group!$A$2:$B$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>800</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>319</v>
+      </c>
+      <c r="M12">
+        <f>VLOOKUP(L12,Temperaments!$A$2:$B$67,2)</f>
+        <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>362</v>
+      </c>
+      <c r="O12">
+        <f>VLOOKUP(N12,Temperaments!$A$2:$B$67,2)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q12">
+        <f>VLOOKUP(P12,Temperaments!$A$2:$B$67,2)</f>
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>334</v>
+      </c>
+      <c r="S12">
+        <f>VLOOKUP(R12,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>338</v>
+      </c>
+      <c r="U12">
+        <f>VLOOKUP(T12,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+      <c r="V12" t="s">
+        <v>447</v>
+      </c>
+      <c r="W12">
+        <f>VLOOKUP(V12,Temperaments!$A$2:$B$67,2)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(D13,Group!$A$2:$B$14,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(F13,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>1050</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>336</v>
+      </c>
+      <c r="M13">
+        <f>VLOOKUP(L13,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>408</v>
+      </c>
+      <c r="O13">
+        <f>VLOOKUP(N13,Temperaments!$A$2:$B$67,2)</f>
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q13">
+        <f>VLOOKUP(P13,Temperaments!$A$2:$B$67,2)</f>
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>334</v>
+      </c>
+      <c r="S13">
+        <f>VLOOKUP(R13,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>323</v>
+      </c>
+      <c r="U13">
+        <f>VLOOKUP(T13,Temperaments!$A$2:$B$67,2)</f>
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
+        <v>340</v>
+      </c>
+      <c r="W13">
+        <f>VLOOKUP(V13,Temperaments!$A$2:$B$67,2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(D14,Group!$A$2:$B$14,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(F14,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>900</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>336</v>
+      </c>
+      <c r="M14">
+        <f>VLOOKUP(L14,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>450</v>
+      </c>
+      <c r="O14">
+        <f>VLOOKUP(N14,Temperaments!$A$2:$B$67,2)</f>
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q14">
+        <f>VLOOKUP(P14,Temperaments!$A$2:$B$67,2)</f>
+        <v>5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>408</v>
+      </c>
+      <c r="S14">
+        <f>VLOOKUP(R14,Temperaments!$A$2:$B$67,2)</f>
+        <v>11</v>
+      </c>
+      <c r="T14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U14">
+        <f>VLOOKUP(T14,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>435</v>
+      </c>
+      <c r="W14">
+        <f>VLOOKUP(V14,Temperaments!$A$2:$B$67,2)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(D15,Group!$A$2:$B$14,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(F15,Group!$A$2:$B$14,2)</f>
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>330</v>
+      </c>
+      <c r="M15">
+        <f>VLOOKUP(L15,Temperaments!$A$2:$B$67,2)</f>
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>327</v>
+      </c>
+      <c r="O15">
+        <f>VLOOKUP(N15,Temperaments!$A$2:$B$67,2)</f>
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q15">
+        <f>VLOOKUP(P15,Temperaments!$A$2:$B$67,2)</f>
+        <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>376</v>
+      </c>
+      <c r="S15">
+        <f>VLOOKUP(R15,Temperaments!$A$2:$B$67,2)</f>
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>460</v>
+      </c>
+      <c r="U15">
+        <f>VLOOKUP(T15,Temperaments!$A$2:$B$67,2)</f>
+        <v>36</v>
+      </c>
+      <c r="W15" t="e">
+        <f>VLOOKUP(V15,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(D16,Group!$A$2:$B$14,2)</f>
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(F16,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>400</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>319</v>
+      </c>
+      <c r="M16">
+        <f>VLOOKUP(L16,Temperaments!$A$2:$B$67,2)</f>
+        <v>54</v>
+      </c>
+      <c r="N16" t="s">
+        <v>438</v>
+      </c>
+      <c r="O16">
+        <f>VLOOKUP(N16,Temperaments!$A$2:$B$67,2)</f>
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q16">
+        <f>VLOOKUP(P16,Temperaments!$A$2:$B$67,2)</f>
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>328</v>
+      </c>
+      <c r="S16">
+        <f>VLOOKUP(R16,Temperaments!$A$2:$B$67,2)</f>
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>323</v>
+      </c>
+      <c r="U16">
+        <f>VLOOKUP(T16,Temperaments!$A$2:$B$67,2)</f>
+        <v>38</v>
+      </c>
+      <c r="W16" t="e">
+        <f>VLOOKUP(V16,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(D17,Group!$A$2:$B$14,2)</f>
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(F17,Group!$A$2:$B$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>1750</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M17">
+        <f>VLOOKUP(L17,Temperaments!$A$2:$B$67,2)</f>
+        <v>63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>392</v>
+      </c>
+      <c r="O17">
+        <f>VLOOKUP(N17,Temperaments!$A$2:$B$67,2)</f>
+        <v>17</v>
+      </c>
+      <c r="P17" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q17">
+        <f>VLOOKUP(P17,Temperaments!$A$2:$B$67,2)</f>
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>352</v>
+      </c>
+      <c r="S17">
+        <f>VLOOKUP(R17,Temperaments!$A$2:$B$67,2)</f>
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>324</v>
+      </c>
+      <c r="U17">
+        <f>VLOOKUP(T17,Temperaments!$A$2:$B$67,2)</f>
+        <v>49</v>
+      </c>
+      <c r="V17" t="s">
+        <v>353</v>
+      </c>
+      <c r="W17">
+        <f>VLOOKUP(V17,Temperaments!$A$2:$B$67,2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(D18,Group!$A$2:$B$14,2)</f>
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(F18,Group!$A$2:$B$14,2)</f>
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>550</v>
+      </c>
+      <c r="J18">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>468</v>
+      </c>
+      <c r="M18">
+        <f>VLOOKUP(L18,Temperaments!$A$2:$B$67,2)</f>
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
+        <v>445</v>
+      </c>
+      <c r="O18">
+        <f>VLOOKUP(N18,Temperaments!$A$2:$B$67,2)</f>
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18">
+        <f>VLOOKUP(P18,Temperaments!$A$2:$B$67,2)</f>
+        <v>20</v>
+      </c>
+      <c r="S18" t="e">
+        <f>VLOOKUP(R18,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U18" t="e">
+        <f>VLOOKUP(T18,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" t="e">
+        <f>VLOOKUP(V18,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(D19,Group!$A$2:$B$14,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(F19,Group!$A$2:$B$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>450</v>
+      </c>
+      <c r="J19">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>319</v>
+      </c>
+      <c r="M19">
+        <f>VLOOKUP(L19,Temperaments!$A$2:$B$67,2)</f>
+        <v>54</v>
+      </c>
+      <c r="N19" t="s">
+        <v>362</v>
+      </c>
+      <c r="O19">
+        <f>VLOOKUP(N19,Temperaments!$A$2:$B$67,2)</f>
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q19">
+        <f>VLOOKUP(P19,Temperaments!$A$2:$B$67,2)</f>
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>382</v>
+      </c>
+      <c r="S19">
+        <f>VLOOKUP(R19,Temperaments!$A$2:$B$67,2)</f>
+        <v>20</v>
+      </c>
+      <c r="T19" t="s">
+        <v>385</v>
+      </c>
+      <c r="U19">
+        <f>VLOOKUP(T19,Temperaments!$A$2:$B$67,2)</f>
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>338</v>
+      </c>
+      <c r="W19">
+        <f>VLOOKUP(V19,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(D20,Group!$A$2:$B$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(F20,Group!$A$2:$B$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>1100</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>436</v>
+      </c>
+      <c r="M20">
+        <f>VLOOKUP(L20,Temperaments!$A$2:$B$67,2)</f>
+        <v>57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>342</v>
+      </c>
+      <c r="O20">
+        <f>VLOOKUP(N20,Temperaments!$A$2:$B$67,2)</f>
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q20">
+        <f>VLOOKUP(P20,Temperaments!$A$2:$B$67,2)</f>
+        <v>21</v>
+      </c>
+      <c r="R20" t="s">
+        <v>334</v>
+      </c>
+      <c r="S20">
+        <f>VLOOKUP(R20,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>338</v>
+      </c>
+      <c r="U20">
+        <f>VLOOKUP(T20,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+      <c r="V20" t="s">
+        <v>352</v>
+      </c>
+      <c r="W20">
+        <f>VLOOKUP(V20,Temperaments!$A$2:$B$67,2)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(D21,Group!$A$2:$B$14,2)</f>
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(F21,Group!$A$2:$B$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>900</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>441</v>
+      </c>
+      <c r="M21">
+        <f>VLOOKUP(L21,Temperaments!$A$2:$B$67,2)</f>
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>411</v>
+      </c>
+      <c r="O21">
+        <f>VLOOKUP(N21,Temperaments!$A$2:$B$67,2)</f>
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q21">
+        <f>VLOOKUP(P21,Temperaments!$A$2:$B$67,2)</f>
+        <v>14</v>
+      </c>
+      <c r="R21" t="s">
+        <v>334</v>
+      </c>
+      <c r="S21">
+        <f>VLOOKUP(R21,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>346</v>
+      </c>
+      <c r="U21">
+        <f>VLOOKUP(T21,Temperaments!$A$2:$B$67,2)</f>
+        <v>39</v>
+      </c>
+      <c r="V21" t="s">
+        <v>358</v>
+      </c>
+      <c r="W21">
+        <f>VLOOKUP(V21,Temperaments!$A$2:$B$67,2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(D22,Group!$A$2:$B$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(F22,Group!$A$2:$B$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>39</v>
+      </c>
+      <c r="I22">
+        <v>1350</v>
+      </c>
+      <c r="J22">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M22">
+        <f>VLOOKUP(L22,Temperaments!$A$2:$B$67,2)</f>
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>467</v>
+      </c>
+      <c r="O22">
+        <f>VLOOKUP(N22,Temperaments!$A$2:$B$67,2)</f>
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q22">
+        <f>VLOOKUP(P22,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="R22" t="s">
+        <v>344</v>
+      </c>
+      <c r="S22">
+        <f>VLOOKUP(R22,Temperaments!$A$2:$B$67,2)</f>
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>323</v>
+      </c>
+      <c r="U22">
+        <f>VLOOKUP(T22,Temperaments!$A$2:$B$67,2)</f>
+        <v>38</v>
+      </c>
+      <c r="V22" t="s">
+        <v>426</v>
+      </c>
+      <c r="W22">
+        <f>VLOOKUP(V22,Temperaments!$A$2:$B$67,2)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(D23,Group!$A$2:$B$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(F23,Group!$A$2:$B$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>49</v>
+      </c>
+      <c r="I23">
+        <v>900</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23">
+        <f>VLOOKUP(L23,Temperaments!$A$2:$B$67,2)</f>
+        <v>54</v>
+      </c>
+      <c r="N23" t="s">
+        <v>485</v>
+      </c>
+      <c r="O23">
+        <f>VLOOKUP(N23,Temperaments!$A$2:$B$67,2)</f>
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q23">
+        <f>VLOOKUP(P23,Temperaments!$A$2:$B$67,2)</f>
+        <v>12</v>
+      </c>
+      <c r="R23" t="s">
+        <v>347</v>
+      </c>
+      <c r="S23">
+        <f>VLOOKUP(R23,Temperaments!$A$2:$B$67,2)</f>
+        <v>31</v>
+      </c>
+      <c r="T23" t="s">
+        <v>486</v>
+      </c>
+      <c r="U23">
+        <f>VLOOKUP(T23,Temperaments!$A$2:$B$67,2)</f>
+        <v>35</v>
+      </c>
+      <c r="W23" t="e">
+        <f>VLOOKUP(V23,Temperaments!$A$2:$B$67,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(D24,Group!$A$2:$B$14,2)</f>
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(F24,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>1600</v>
+      </c>
+      <c r="J24">
+        <v>62</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>336</v>
+      </c>
+      <c r="M24">
+        <f>VLOOKUP(L24,Temperaments!$A$2:$B$67,2)</f>
+        <v>56</v>
+      </c>
+      <c r="N24" t="s">
+        <v>433</v>
+      </c>
+      <c r="O24">
+        <f>VLOOKUP(N24,Temperaments!$A$2:$B$67,2)</f>
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q24">
+        <f>VLOOKUP(P24,Temperaments!$A$2:$B$67,2)</f>
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>343</v>
+      </c>
+      <c r="S24">
+        <f>VLOOKUP(R24,Temperaments!$A$2:$B$67,2)</f>
+        <v>25</v>
+      </c>
+      <c r="T24" t="s">
+        <v>396</v>
+      </c>
+      <c r="U24">
+        <f>VLOOKUP(T24,Temperaments!$A$2:$B$67,2)</f>
+        <v>41</v>
+      </c>
+      <c r="V24" t="s">
+        <v>379</v>
+      </c>
+      <c r="W24">
+        <f>VLOOKUP(V24,Temperaments!$A$2:$B$67,2)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(D25,Group!$A$2:$B$14,2)</f>
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(F25,Group!$A$2:$B$14,2)</f>
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>330</v>
+      </c>
+      <c r="M25">
+        <f>VLOOKUP(L25,Temperaments!$A$2:$B$67,2)</f>
+        <v>58</v>
+      </c>
+      <c r="N25" t="s">
+        <v>333</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP(N25,Temperaments!$A$2:$B$67,2)</f>
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q25">
+        <f>VLOOKUP(P25,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="R25" t="s">
+        <v>366</v>
+      </c>
+      <c r="S25">
+        <f>VLOOKUP(R25,Temperaments!$A$2:$B$67,2)</f>
+        <v>48</v>
+      </c>
+      <c r="T25" t="s">
+        <v>329</v>
+      </c>
+      <c r="U25">
+        <f>VLOOKUP(T25,Temperaments!$A$2:$B$67,2)</f>
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>344</v>
+      </c>
+      <c r="W25">
+        <f>VLOOKUP(V25,Temperaments!$A$2:$B$67,2)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(D26,Group!$A$2:$B$14,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(F26,Group!$A$2:$B$14,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>800</v>
+      </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>330</v>
+      </c>
+      <c r="M26">
+        <f>VLOOKUP(L26,Temperaments!$A$2:$B$67,2)</f>
+        <v>58</v>
+      </c>
+      <c r="N26" t="s">
+        <v>332</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(N26,Temperaments!$A$2:$B$67,2)</f>
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q26">
+        <f>VLOOKUP(P26,Temperaments!$A$2:$B$67,2)</f>
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>329</v>
+      </c>
+      <c r="S26">
+        <f>VLOOKUP(R26,Temperaments!$A$2:$B$67,2)</f>
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>334</v>
+      </c>
+      <c r="U26">
+        <f>VLOOKUP(T26,Temperaments!$A$2:$B$67,2)</f>
+        <v>29</v>
+      </c>
+      <c r="V26" t="s">
+        <v>338</v>
+      </c>
+      <c r="W26">
+        <f>VLOOKUP(V26,Temperaments!$A$2:$B$67,2)</f>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FACC48E-F19D-47DF-8CD2-CBE3D0F986CE}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M1" t="s">
+        <v>504</v>
+      </c>
+      <c r="N1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>58</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>1100</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1350</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>58</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1350</v>
+      </c>
+      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>29</v>
+      </c>
+      <c r="O7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>64</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>66</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>34</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>61</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>33</v>
+      </c>
+      <c r="N11">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="H12">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>33</v>
+      </c>
+      <c r="O12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1050</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>38</v>
+      </c>
+      <c r="O13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>900</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>29</v>
+      </c>
+      <c r="O14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>400</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>58</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>21</v>
+      </c>
+      <c r="N15">
+        <v>36</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>400</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>54</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>38</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>1750</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>49</v>
+      </c>
+      <c r="O17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>550</v>
+      </c>
+      <c r="H18">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>59</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>450</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>1100</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>33</v>
+      </c>
+      <c r="O20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>900</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>62</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>39</v>
+      </c>
+      <c r="O21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>1350</v>
+      </c>
+      <c r="H22">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>38</v>
+      </c>
+      <c r="O22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>900</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>54</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1600</v>
+      </c>
+      <c r="H24">
+        <v>62</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>41</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>48</v>
+      </c>
+      <c r="N25">
+        <v>27</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>800</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>29</v>
+      </c>
+      <c r="O26">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA4091B-CC96-43A6-A025-659B51510C5B}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B51">
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEA0F2B-0D69-4DB6-9E5C-A72C4DB110D1}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>486</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>352</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>358</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>409</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>427</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>468</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>441</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>495</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>434</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F67">
+    <sortCondition ref="A2:A67"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>